--- a/UseCaseScenarij/RegistracijaPacijenta.xlsx
+++ b/UseCaseScenarij/RegistracijaPacijenta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\OOAD scenariji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\update ovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Scenarij 1: Registracija pacijenta</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Glavni tok</t>
   </si>
   <si>
-    <t>Tok događaja - Uspješan završetak</t>
-  </si>
-  <si>
     <t>Sistem</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t xml:space="preserve"> ga registruje tj. Unosi u sistem/bazu</t>
   </si>
   <si>
-    <t>5. Obavjesti pacijenta</t>
-  </si>
-  <si>
-    <t>6.izdaje username</t>
-  </si>
-  <si>
     <t xml:space="preserve"> i pw za koristenje </t>
   </si>
   <si>
@@ -125,13 +116,31 @@
     <t>o statusu registracije</t>
   </si>
   <si>
-    <t>Alternativni tok događaja -neuspješna registracija</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. ne želi dati sve </t>
   </si>
   <si>
     <t>podatke</t>
+  </si>
+  <si>
+    <t>Alternativni tok događaja  - neuspješna  registracija</t>
+  </si>
+  <si>
+    <t>Tok događaja  -  Uspješan završetak</t>
+  </si>
+  <si>
+    <t>2. Obavjesti pacijenta</t>
+  </si>
+  <si>
+    <t>5. Obavještava</t>
+  </si>
+  <si>
+    <t>6. Izdaje username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacijenta o uspješnoj </t>
+  </si>
+  <si>
+    <t>registraciji</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -274,17 +283,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -324,10 +322,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -338,15 +335,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,287 +624,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="18" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="C21" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="C21" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>30</v>
+      <c r="C22" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>18</v>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
